--- a/biology/Histoire de la zoologie et de la botanique/John_Torrey/John_Torrey.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/John_Torrey/John_Torrey.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">John Torrey est un médecin, chimiste et botaniste américain, fondateur de la Torrey Botanical Society et professeur de botanique, né le 15 août 1796 à New York et mort le 10 mars 1873 dans cette même ville.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il pense tout d'abord s'orienter vers la mécanique, mais grâce à Amos Eaton (1776-1842), qui lui enseigne des rudiments de botanique, de minéralogie et de chimie, il se tourne vers les sciences. En 1815, il commence des études de médecine sous la direction du docteur Wright Post à l'école de médecine et de chirurgie.
 Après l'obtention de son diplôme, il ouvre un cabinet à New York tout en poursuivant ses recherches en botanique et sur d'autres sujets scientifiques. Il s'engage dans l'armée comme assistant-chirurgien mais peu passionné par l'exercice de la médecine, occupe en réalité un poste d'enseignant de chimie, de minéralogie et de géologie jusqu'à son départ de l'armée quatre ans plus tard.
@@ -549,7 +563,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Keir B. Sterling, Richard P. Harmond, George A. Cevasco &amp; Lorne F. Hammond (dir.) (1997). Biographical dictionary of American and Canadian naturalists and environmentalists. Greenwood Press (Westport) : xix + 937 p.  (ISBN 0-313-23047-1)</t>
         </is>
